--- a/monthly_budget.xlsx
+++ b/monthly_budget.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://weifieldgroup0-my.sharepoint.com/personal/cjones_weifieldgroup_com/Documents/Desktop/Excel_Udemy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{C5B5F0C7-0F4A-434F-A707-AD3DBEF26536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20F0C4DF-E129-454E-93C4-2A557A2BF206}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="8_{C5B5F0C7-0F4A-434F-A707-AD3DBEF26536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F62D28AE-3DFA-4984-A538-830F576DDE55}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="monthly_budget" sheetId="1" r:id="rId1"/>
+    <sheet name="chart_monthly_budget" sheetId="9" r:id="rId1"/>
+    <sheet name="monthly_budget" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,9 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>Monthly Budget</t>
-  </si>
   <si>
     <t>Bills</t>
   </si>
@@ -72,6 +70,9 @@
   </si>
   <si>
     <t>COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025 Monthly Budget </t>
   </si>
 </sst>
 </file>
@@ -123,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,35 +197,40 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -243,7 +255,6191 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>monthly_budget!$B$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>2025 Monthly Budget </c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3488720752762336"/>
+          <c:y val="4.6427624007134689E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14275758083431062"/>
+          <c:y val="0.14333884118465937"/>
+          <c:w val="0.82887362483944826"/>
+          <c:h val="0.65086166570648563"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>monthly_budget!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$C$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F7C-45B0-A531-430CCC16CCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>monthly_budget!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F7C-45B0-A531-430CCC16CCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>monthly_budget!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$C$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F7C-45B0-A531-430CCC16CCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>monthly_budget!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$C$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3F7C-45B0-A531-430CCC16CCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Candy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>monthly_budget!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$C$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3F7C-45B0-A531-430CCC16CCAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="366732127"/>
+        <c:axId val="366732607"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="366732127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366732607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="366732607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366732127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25635842633449396"/>
+          <c:y val="0.89519675156039569"/>
+          <c:w val="0.48728314733101213"/>
+          <c:h val="4.6264070343651834E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feb-25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>monthly_budget!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Candy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7A4-48BC-9494-8D06A534E5D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>monthly_budget!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Candy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.60840085993054405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.243261121217133E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20456424673391765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10286092277162229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1741359351744666E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFBF-4F00-A20A-DB894E5F18EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C9C8DCC-8790-49D8-9923-3CE78E6131A0}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{A6FBA831-E58C-46D6-9A18-E2DF980F5408}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9" loCatId="process" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1D141CD8-6894-4FF9-8910-500F8F17FCA0}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Make Money</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{08B08877-D400-434F-B653-57A10734789D}" type="parTrans" cxnId="{57DC7EFD-F54D-4991-A70A-8C4BB2F70CD5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F6913942-0BBB-4000-B46F-0537F8B24C3E}" type="sibTrans" cxnId="{57DC7EFD-F54D-4991-A70A-8C4BB2F70CD5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{27A9F6A1-AA28-4139-AEC0-9C787E912407}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Spend Money</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4CC97BD7-9B18-4E49-82F7-A163D3A447FC}" type="parTrans" cxnId="{E5E92017-9521-432B-9C05-774C73C2E159}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{13469083-7253-4659-A52E-FBC9FD40192C}" type="sibTrans" cxnId="{E5E92017-9521-432B-9C05-774C73C2E159}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E9913B52-E6FA-4CF8-801E-E648FF3CB866}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Track Money</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C6CC3FE7-C9DB-42F0-9F9E-354AEF4B3E2B}" type="parTrans" cxnId="{F978C42F-AD97-4CBF-BE39-07A920166E20}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{95FC7C5B-E973-48EC-87A0-3456BB72BA88}" type="sibTrans" cxnId="{F978C42F-AD97-4CBF-BE39-07A920166E20}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EA0691F6-BE7B-4197-A7BF-2A99EFAFF121}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Job</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{18981FFD-604C-49DD-8731-989012CD5DAC}" type="parTrans" cxnId="{44DC74D9-0770-4E71-8468-B99D17DBD280}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C5A94794-6866-46AB-8E81-4C80873EE307}" type="sibTrans" cxnId="{44DC74D9-0770-4E71-8468-B99D17DBD280}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{956D7C5E-25E9-4176-8166-0868222AF20F}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Side Job</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2EAE4F27-161B-409D-BDE7-920B10D2EEF9}" type="parTrans" cxnId="{184424CD-BDC9-4ACB-9AD7-829E08104719}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E523C5B-C50E-475F-92BF-5729F78E95DE}" type="sibTrans" cxnId="{184424CD-BDC9-4ACB-9AD7-829E08104719}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CE0A1885-91D9-4C6B-8735-0D0F84C3A467}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Sell a testicle</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C37DB967-C41D-40D0-9C06-91D162FF2A3A}" type="parTrans" cxnId="{F59F90FC-3831-471E-A890-7E7DADF7AEAE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C2A89722-7BF5-4962-A8C6-6CDB7184E110}" type="sibTrans" cxnId="{F59F90FC-3831-471E-A890-7E7DADF7AEAE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F5A3F13E-BCD7-49B0-9470-0DA1E62F0922}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Bills</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A2BD5C59-DE5D-4FA9-8CA5-0BB138B0FB14}" type="parTrans" cxnId="{27E0EE09-05A1-48FB-B6FB-6E90EE5EEBC6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{70B29223-73FE-49E0-BA1C-97E4C07DE511}" type="sibTrans" cxnId="{27E0EE09-05A1-48FB-B6FB-6E90EE5EEBC6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{66706E9B-054D-4EB2-A892-CD60DEC9816F}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Metal testicale replacement ball</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{234BAF2E-184F-4314-A5CA-03AC132C98EE}" type="parTrans" cxnId="{62609E35-B3A9-4E83-8FC5-130F4EA1A009}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{789F2601-856A-4809-8DFB-E457984C5473}" type="sibTrans" cxnId="{62609E35-B3A9-4E83-8FC5-130F4EA1A009}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3594F975-5464-4B47-956A-3DE668AC3248}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Date nights</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{347752F4-20FF-4AB3-834D-C19A4CFE6B6C}" type="parTrans" cxnId="{3A8EDE26-7988-411B-838A-86095FF388FC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CDA6D219-3F7D-4F6A-B1CF-4D817A9735D9}" type="sibTrans" cxnId="{3A8EDE26-7988-411B-838A-86095FF388FC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D8D8A8EB-72CF-497A-9CAB-B4FAE72C62F3}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Budget</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3BFEB041-51AE-45FF-826C-06EA7441D938}" type="parTrans" cxnId="{0C0C39A3-2D11-49EB-9237-258023C7EEF4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{43BABC78-4FD7-4D4F-AFDB-1D5720D0C6E2}" type="sibTrans" cxnId="{0C0C39A3-2D11-49EB-9237-258023C7EEF4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{37546499-B70F-448D-A675-CA51832F79FC}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Receipts</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9CFC65C6-EC92-4860-8550-55094FDB6182}" type="parTrans" cxnId="{6CCC5B3B-87A0-4F81-A38C-A811D7430FE2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9426A705-0CD0-48CC-A1F8-8E578475501E}" type="sibTrans" cxnId="{6CCC5B3B-87A0-4F81-A38C-A811D7430FE2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5562917B-C9BF-4E23-8084-5662789BB2F1}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Massage testicle</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9B3F98C0-E335-4F20-A59E-7B2AC15324F6}" type="parTrans" cxnId="{FED0BA07-A210-47A9-B13A-B46BA2568BAF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{413541CF-8C02-419C-AB30-E365DA58FBBD}" type="sibTrans" cxnId="{FED0BA07-A210-47A9-B13A-B46BA2568BAF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7D175D72-DB8D-48E3-8F02-815A5E3A2A15}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Spending limits</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{72171DD8-898E-47E4-81AF-88FE7D87B41C}" type="parTrans" cxnId="{FC260529-BEF3-4B53-882B-9F9E8C3323C6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DEA4C539-1F72-4BBF-90D6-8599A8689B11}" type="sibTrans" cxnId="{FC260529-BEF3-4B53-882B-9F9E8C3323C6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E632D5A2-C89A-4876-95F7-191AD0212E79}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>$1.7M</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{27B9956C-AC95-45B7-9BE3-9C170F349489}" type="parTrans" cxnId="{C77693C7-8BFD-4360-93C7-AE921D59671A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{40B1D0C9-A6C7-4D45-A4B6-4012B97391E4}" type="sibTrans" cxnId="{C77693C7-8BFD-4360-93C7-AE921D59671A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D37470FE-726B-4F69-AB12-DAA6A78CD3A1}" type="pres">
+      <dgm:prSet presAssocID="{A6FBA831-E58C-46D6-9A18-E2DF980F5408}" presName="CompostProcess" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{46A34875-8FB4-4179-B276-E26FB7D4F7B2}" type="pres">
+      <dgm:prSet presAssocID="{A6FBA831-E58C-46D6-9A18-E2DF980F5408}" presName="arrow" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="1" custLinFactX="-14467" custLinFactY="15659" custLinFactNeighborX="-100000" custLinFactNeighborY="100000"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A0B29CD6-D2B8-42F8-B7AB-7360C2C8539E}" type="pres">
+      <dgm:prSet presAssocID="{A6FBA831-E58C-46D6-9A18-E2DF980F5408}" presName="linearProcess" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6EC38160-18D3-4AC0-8CDA-6B0A4FFA999C}" type="pres">
+      <dgm:prSet presAssocID="{1D141CD8-6894-4FF9-8910-500F8F17FCA0}" presName="textNode" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3" custScaleX="101357" custScaleY="98090">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{534E74E4-2398-41D3-B25D-A559F6A9EF5B}" type="pres">
+      <dgm:prSet presAssocID="{F6913942-0BBB-4000-B46F-0537F8B24C3E}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3BC48A74-372B-4DC9-9CDF-46CBF1AABACE}" type="pres">
+      <dgm:prSet presAssocID="{27A9F6A1-AA28-4139-AEC0-9C787E912407}" presName="textNode" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3" custScaleX="101357" custScaleY="98090">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{45BA50F7-31F9-42E4-9F93-9C644A491CB3}" type="pres">
+      <dgm:prSet presAssocID="{13469083-7253-4659-A52E-FBC9FD40192C}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{63EFDB58-0384-4076-8B1E-50722CC9DD29}" type="pres">
+      <dgm:prSet presAssocID="{E9913B52-E6FA-4CF8-801E-E648FF3CB866}" presName="textNode" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3" custScaleX="101357" custScaleY="98090">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{274DD501-E018-4FC4-819E-F14E3E3932DB}" type="presOf" srcId="{CE0A1885-91D9-4C6B-8735-0D0F84C3A467}" destId="{6EC38160-18D3-4AC0-8CDA-6B0A4FFA999C}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{FED0BA07-A210-47A9-B13A-B46BA2568BAF}" srcId="{E9913B52-E6FA-4CF8-801E-E648FF3CB866}" destId="{5562917B-C9BF-4E23-8084-5662789BB2F1}" srcOrd="2" destOrd="0" parTransId="{9B3F98C0-E335-4F20-A59E-7B2AC15324F6}" sibTransId="{413541CF-8C02-419C-AB30-E365DA58FBBD}"/>
+    <dgm:cxn modelId="{27E0EE09-05A1-48FB-B6FB-6E90EE5EEBC6}" srcId="{27A9F6A1-AA28-4139-AEC0-9C787E912407}" destId="{F5A3F13E-BCD7-49B0-9470-0DA1E62F0922}" srcOrd="0" destOrd="0" parTransId="{A2BD5C59-DE5D-4FA9-8CA5-0BB138B0FB14}" sibTransId="{70B29223-73FE-49E0-BA1C-97E4C07DE511}"/>
+    <dgm:cxn modelId="{FEEB000F-D6D6-4AFA-BA0B-99FB27F5F1D4}" type="presOf" srcId="{EA0691F6-BE7B-4197-A7BF-2A99EFAFF121}" destId="{6EC38160-18D3-4AC0-8CDA-6B0A4FFA999C}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{0751BA16-0442-4926-A9FC-1CC120F14BEA}" type="presOf" srcId="{7D175D72-DB8D-48E3-8F02-815A5E3A2A15}" destId="{63EFDB58-0384-4076-8B1E-50722CC9DD29}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{E5E92017-9521-432B-9C05-774C73C2E159}" srcId="{A6FBA831-E58C-46D6-9A18-E2DF980F5408}" destId="{27A9F6A1-AA28-4139-AEC0-9C787E912407}" srcOrd="1" destOrd="0" parTransId="{4CC97BD7-9B18-4E49-82F7-A163D3A447FC}" sibTransId="{13469083-7253-4659-A52E-FBC9FD40192C}"/>
+    <dgm:cxn modelId="{3A8EDE26-7988-411B-838A-86095FF388FC}" srcId="{27A9F6A1-AA28-4139-AEC0-9C787E912407}" destId="{3594F975-5464-4B47-956A-3DE668AC3248}" srcOrd="2" destOrd="0" parTransId="{347752F4-20FF-4AB3-834D-C19A4CFE6B6C}" sibTransId="{CDA6D219-3F7D-4F6A-B1CF-4D817A9735D9}"/>
+    <dgm:cxn modelId="{FC260529-BEF3-4B53-882B-9F9E8C3323C6}" srcId="{E9913B52-E6FA-4CF8-801E-E648FF3CB866}" destId="{7D175D72-DB8D-48E3-8F02-815A5E3A2A15}" srcOrd="3" destOrd="0" parTransId="{72171DD8-898E-47E4-81AF-88FE7D87B41C}" sibTransId="{DEA4C539-1F72-4BBF-90D6-8599A8689B11}"/>
+    <dgm:cxn modelId="{F978C42F-AD97-4CBF-BE39-07A920166E20}" srcId="{A6FBA831-E58C-46D6-9A18-E2DF980F5408}" destId="{E9913B52-E6FA-4CF8-801E-E648FF3CB866}" srcOrd="2" destOrd="0" parTransId="{C6CC3FE7-C9DB-42F0-9F9E-354AEF4B3E2B}" sibTransId="{95FC7C5B-E973-48EC-87A0-3456BB72BA88}"/>
+    <dgm:cxn modelId="{62609E35-B3A9-4E83-8FC5-130F4EA1A009}" srcId="{27A9F6A1-AA28-4139-AEC0-9C787E912407}" destId="{66706E9B-054D-4EB2-A892-CD60DEC9816F}" srcOrd="1" destOrd="0" parTransId="{234BAF2E-184F-4314-A5CA-03AC132C98EE}" sibTransId="{789F2601-856A-4809-8DFB-E457984C5473}"/>
+    <dgm:cxn modelId="{6CCC5B3B-87A0-4F81-A38C-A811D7430FE2}" srcId="{E9913B52-E6FA-4CF8-801E-E648FF3CB866}" destId="{37546499-B70F-448D-A675-CA51832F79FC}" srcOrd="1" destOrd="0" parTransId="{9CFC65C6-EC92-4860-8550-55094FDB6182}" sibTransId="{9426A705-0CD0-48CC-A1F8-8E578475501E}"/>
+    <dgm:cxn modelId="{39BB9240-EFC2-40C8-AF1C-F48F6624736A}" type="presOf" srcId="{F5A3F13E-BCD7-49B0-9470-0DA1E62F0922}" destId="{3BC48A74-372B-4DC9-9CDF-46CBF1AABACE}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{C094E468-F3DF-4882-AE03-BF29E964398D}" type="presOf" srcId="{3594F975-5464-4B47-956A-3DE668AC3248}" destId="{3BC48A74-372B-4DC9-9CDF-46CBF1AABACE}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{142A0D53-76E6-493C-9100-959E8ECD0EB4}" type="presOf" srcId="{27A9F6A1-AA28-4139-AEC0-9C787E912407}" destId="{3BC48A74-372B-4DC9-9CDF-46CBF1AABACE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{76FB4F54-3E0C-4F67-951D-F4BFEF5D3039}" type="presOf" srcId="{A6FBA831-E58C-46D6-9A18-E2DF980F5408}" destId="{D37470FE-726B-4F69-AB12-DAA6A78CD3A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{B71BD675-389E-47D1-9366-64F3F54AA174}" type="presOf" srcId="{5562917B-C9BF-4E23-8084-5662789BB2F1}" destId="{63EFDB58-0384-4076-8B1E-50722CC9DD29}" srcOrd="0" destOrd="3" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{94EC7176-4755-462C-9D8F-958220BA40FD}" type="presOf" srcId="{956D7C5E-25E9-4176-8166-0868222AF20F}" destId="{6EC38160-18D3-4AC0-8CDA-6B0A4FFA999C}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{DB9DEB88-8843-4E73-B7E5-B6ED4DEF2D9C}" type="presOf" srcId="{66706E9B-054D-4EB2-A892-CD60DEC9816F}" destId="{3BC48A74-372B-4DC9-9CDF-46CBF1AABACE}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{58DDA498-39AE-4E1D-9DFA-A2E029B47657}" type="presOf" srcId="{37546499-B70F-448D-A675-CA51832F79FC}" destId="{63EFDB58-0384-4076-8B1E-50722CC9DD29}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{3301BE9A-9BB8-4DB6-8058-48F1E0CAB3D1}" type="presOf" srcId="{D8D8A8EB-72CF-497A-9CAB-B4FAE72C62F3}" destId="{63EFDB58-0384-4076-8B1E-50722CC9DD29}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{6AB015A0-7916-4D54-B752-E03870002064}" type="presOf" srcId="{1D141CD8-6894-4FF9-8910-500F8F17FCA0}" destId="{6EC38160-18D3-4AC0-8CDA-6B0A4FFA999C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{971170A1-ECDE-4FEF-B951-F7A9A94FCA56}" type="presOf" srcId="{E9913B52-E6FA-4CF8-801E-E648FF3CB866}" destId="{63EFDB58-0384-4076-8B1E-50722CC9DD29}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{0C0C39A3-2D11-49EB-9237-258023C7EEF4}" srcId="{E9913B52-E6FA-4CF8-801E-E648FF3CB866}" destId="{D8D8A8EB-72CF-497A-9CAB-B4FAE72C62F3}" srcOrd="0" destOrd="0" parTransId="{3BFEB041-51AE-45FF-826C-06EA7441D938}" sibTransId="{43BABC78-4FD7-4D4F-AFDB-1D5720D0C6E2}"/>
+    <dgm:cxn modelId="{C77693C7-8BFD-4360-93C7-AE921D59671A}" srcId="{CE0A1885-91D9-4C6B-8735-0D0F84C3A467}" destId="{E632D5A2-C89A-4876-95F7-191AD0212E79}" srcOrd="0" destOrd="0" parTransId="{27B9956C-AC95-45B7-9BE3-9C170F349489}" sibTransId="{40B1D0C9-A6C7-4D45-A4B6-4012B97391E4}"/>
+    <dgm:cxn modelId="{184424CD-BDC9-4ACB-9AD7-829E08104719}" srcId="{1D141CD8-6894-4FF9-8910-500F8F17FCA0}" destId="{956D7C5E-25E9-4176-8166-0868222AF20F}" srcOrd="1" destOrd="0" parTransId="{2EAE4F27-161B-409D-BDE7-920B10D2EEF9}" sibTransId="{4E523C5B-C50E-475F-92BF-5729F78E95DE}"/>
+    <dgm:cxn modelId="{9970E0D0-F008-4354-A445-DD370B4A2594}" type="presOf" srcId="{E632D5A2-C89A-4876-95F7-191AD0212E79}" destId="{6EC38160-18D3-4AC0-8CDA-6B0A4FFA999C}" srcOrd="0" destOrd="4" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{44DC74D9-0770-4E71-8468-B99D17DBD280}" srcId="{1D141CD8-6894-4FF9-8910-500F8F17FCA0}" destId="{EA0691F6-BE7B-4197-A7BF-2A99EFAFF121}" srcOrd="0" destOrd="0" parTransId="{18981FFD-604C-49DD-8731-989012CD5DAC}" sibTransId="{C5A94794-6866-46AB-8E81-4C80873EE307}"/>
+    <dgm:cxn modelId="{F59F90FC-3831-471E-A890-7E7DADF7AEAE}" srcId="{1D141CD8-6894-4FF9-8910-500F8F17FCA0}" destId="{CE0A1885-91D9-4C6B-8735-0D0F84C3A467}" srcOrd="2" destOrd="0" parTransId="{C37DB967-C41D-40D0-9C06-91D162FF2A3A}" sibTransId="{C2A89722-7BF5-4962-A8C6-6CDB7184E110}"/>
+    <dgm:cxn modelId="{57DC7EFD-F54D-4991-A70A-8C4BB2F70CD5}" srcId="{A6FBA831-E58C-46D6-9A18-E2DF980F5408}" destId="{1D141CD8-6894-4FF9-8910-500F8F17FCA0}" srcOrd="0" destOrd="0" parTransId="{08B08877-D400-434F-B653-57A10734789D}" sibTransId="{F6913942-0BBB-4000-B46F-0537F8B24C3E}"/>
+    <dgm:cxn modelId="{9236DCC6-3D76-43DB-B996-FE148151F59C}" type="presParOf" srcId="{D37470FE-726B-4F69-AB12-DAA6A78CD3A1}" destId="{46A34875-8FB4-4179-B276-E26FB7D4F7B2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{A035A34B-E12C-457A-B52F-E2C4D71BA6B1}" type="presParOf" srcId="{D37470FE-726B-4F69-AB12-DAA6A78CD3A1}" destId="{A0B29CD6-D2B8-42F8-B7AB-7360C2C8539E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{DCEC26B3-30D9-477D-B5E9-E41D42BA0085}" type="presParOf" srcId="{A0B29CD6-D2B8-42F8-B7AB-7360C2C8539E}" destId="{6EC38160-18D3-4AC0-8CDA-6B0A4FFA999C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{12B8B4D9-75BF-4CC4-8B21-6B1033D8856C}" type="presParOf" srcId="{A0B29CD6-D2B8-42F8-B7AB-7360C2C8539E}" destId="{534E74E4-2398-41D3-B25D-A559F6A9EF5B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{3EF8745D-7971-4C6B-B6B0-6BD8C802E9AA}" type="presParOf" srcId="{A0B29CD6-D2B8-42F8-B7AB-7360C2C8539E}" destId="{3BC48A74-372B-4DC9-9CDF-46CBF1AABACE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{27141D9C-18F3-4A60-BF81-59CA7187695D}" type="presParOf" srcId="{A0B29CD6-D2B8-42F8-B7AB-7360C2C8539E}" destId="{45BA50F7-31F9-42E4-9F93-9C644A491CB3}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{D538B9B3-74B9-4116-BE59-B6E3022D22AE}" type="presParOf" srcId="{A0B29CD6-D2B8-42F8-B7AB-7360C2C8539E}" destId="{63EFDB58-0384-4076-8B1E-50722CC9DD29}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId7" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{46A34875-8FB4-4179-B276-E26FB7D4F7B2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4388167" cy="3071812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{6EC38160-18D3-4AC0-8CDA-6B0A4FFA999C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="142660" y="933277"/>
+          <a:ext cx="1569781" cy="1205256"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Make Money</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Job</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Side Job</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Sell a testicle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="114300" lvl="2" indent="-57150" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>$1.7M</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="201496" y="992113"/>
+        <a:ext cx="1452109" cy="1087584"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3BC48A74-372B-4DC9-9CDF-46CBF1AABACE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1796384" y="933277"/>
+          <a:ext cx="1569781" cy="1205256"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Spend Money</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Bills</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Metal testicale replacement ball</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Date nights</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1855220" y="992113"/>
+        <a:ext cx="1452109" cy="1087584"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{63EFDB58-0384-4076-8B1E-50722CC9DD29}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3450107" y="933277"/>
+          <a:ext cx="1569781" cy="1205256"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Track Money</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Budget</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Receipts</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Massage testicle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="57150" lvl="1" indent="-57150" algn="l" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Spending limits</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3508943" y="992113"/>
+        <a:ext cx="1452109" cy="1087584"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="process" pri="5000"/>
+    <dgm:cat type="convert" pri="13000"/>
+  </dgm:catLst>
+  <dgm:sampData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="CompostProcess">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="composite">
+      <dgm:param type="horzAlign" val="ctr"/>
+      <dgm:param type="vertAlign" val="mid"/>
+    </dgm:alg>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" forName="arrow" refType="w" fact="0.85"/>
+      <dgm:constr type="h" for="ch" forName="arrow" refType="h"/>
+      <dgm:constr type="ctrX" for="ch" forName="arrow" refType="w" fact="0.5"/>
+      <dgm:constr type="ctrY" for="ch" forName="arrow" refType="h" fact="0.5"/>
+      <dgm:constr type="w" for="ch" forName="linearProcess" refType="w"/>
+      <dgm:constr type="h" for="ch" forName="linearProcess" refType="h" fact="0.4"/>
+      <dgm:constr type="ctrX" for="ch" forName="linearProcess" refType="w" fact="0.5"/>
+      <dgm:constr type="ctrY" for="ch" forName="linearProcess" refType="h" fact="0.5"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:layoutNode name="arrow" styleLbl="bgShp">
+      <dgm:alg type="sp"/>
+      <dgm:choose name="Name0">
+        <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rightArrow" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+        </dgm:if>
+        <dgm:else name="Name2">
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="leftArrow" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:presOf/>
+      <dgm:constrLst/>
+      <dgm:ruleLst/>
+    </dgm:layoutNode>
+    <dgm:layoutNode name="linearProcess">
+      <dgm:choose name="Name3">
+        <dgm:if name="Name4" func="var" arg="dir" op="equ" val="norm">
+          <dgm:alg type="lin"/>
+        </dgm:if>
+        <dgm:else name="Name5">
+          <dgm:alg type="lin">
+            <dgm:param type="linDir" val="fromR"/>
+          </dgm:alg>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:presOf/>
+      <dgm:constrLst>
+        <dgm:constr type="userA" for="ch" ptType="node" refType="w"/>
+        <dgm:constr type="h" for="ch" ptType="node" refType="h"/>
+        <dgm:constr type="w" for="ch" ptType="node" op="equ"/>
+        <dgm:constr type="w" for="ch" forName="sibTrans" refType="w" fact="0.05"/>
+        <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+      </dgm:constrLst>
+      <dgm:ruleLst/>
+      <dgm:forEach name="Name6" axis="ch" ptType="node">
+        <dgm:layoutNode name="textNode" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="userA"/>
+            <dgm:constr type="w" refType="userA" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="w" val="NaN" fact="1" max="NaN"/>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:forEach name="Name7" axis="followSib" ptType="sibTrans" cnt="1">
+          <dgm:layoutNode name="sibTrans">
+            <dgm:alg type="sp"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+          </dgm:layoutNode>
+        </dgm:forEach>
+      </dgm:forEach>
+    </dgm:layoutNode>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BE3B75-9E0C-024C-2F67-0387E156503D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -349,6 +6545,182 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Left 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D3D798-4A0D-AF21-838A-A29856B8390B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657848" y="1095375"/>
+          <a:ext cx="800101" cy="360045"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagram 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9C140A-0678-B955-F2D5-F0D232C043BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId3" r:lo="rId4" r:qs="rId5" r:cs="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCC2E9C-6020-F729-688B-F4C5EBCE92E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13A7760-CC83-6816-AED2-A0D22F4990D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -648,96 +7020,97 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45689</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45717</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
-        <v>43466</v>
-      </c>
-      <c r="D4" s="8">
-        <v>43497</v>
-      </c>
-      <c r="E4" s="8">
-        <v>43525</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>4</v>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
       </c>
-      <c r="C5" s="9">
-        <v>1000</v>
+      <c r="C5" s="10">
+        <v>1235</v>
       </c>
-      <c r="D5" s="9">
-        <v>1000</v>
+      <c r="D5" s="10">
+        <v>1198</v>
       </c>
-      <c r="E5" s="9">
-        <v>1000</v>
+      <c r="E5" s="10">
+        <v>1246</v>
       </c>
       <c r="F5" s="11">
         <f>SUM(C5:E5)</f>
-        <v>3000</v>
+        <v>3679</v>
       </c>
       <c r="G5" s="12">
         <f>(F5/F10)</f>
-        <v>0.56348610067618332</v>
+        <v>0.60840085993054405</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="13">
         <v>146</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="13">
         <v>146</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="13">
         <v>146</v>
       </c>
       <c r="F6" s="11">
@@ -746,20 +7119,20 @@
       </c>
       <c r="G6" s="12">
         <f>(F6/F10)</f>
-        <v>8.2268970698722771E-2</v>
+        <v>7.243261121217133E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="13">
         <v>413</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="13">
         <v>412</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="13">
         <v>412</v>
       </c>
       <c r="F7" s="11">
@@ -768,20 +7141,20 @@
       </c>
       <c r="G7" s="12">
         <f>(F7/F10)</f>
-        <v>0.23234410217881293</v>
+        <v>0.20456424673391765</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="13">
         <v>185</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="14">
         <v>212</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="14">
         <v>225</v>
       </c>
       <c r="F8" s="11">
@@ -790,136 +7163,136 @@
       </c>
       <c r="G8" s="12">
         <f>(F8/F10)</f>
-        <v>0.11682945154019535</v>
+        <v>0.10286092277162229</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
       </c>
-      <c r="C9" s="10">
-        <v>6</v>
+      <c r="C9" s="13">
+        <v>24</v>
       </c>
-      <c r="D9" s="10">
-        <v>12</v>
+      <c r="D9" s="13">
+        <v>21</v>
       </c>
-      <c r="E9" s="10">
-        <v>9</v>
+      <c r="E9" s="13">
+        <v>26</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="G9" s="12">
         <f>(F9/F10)</f>
-        <v>5.0713749060856501E-3</v>
+        <v>1.1741359351744666E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>2</v>
+      <c r="B10" s="5" t="s">
+        <v>1</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="13">
         <f>SUM(C5:C9)</f>
-        <v>1750</v>
+        <v>2003</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="13">
         <f t="shared" ref="D10:F10" si="1">SUM(D5:D9)</f>
-        <v>1782</v>
+        <v>1989</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="13">
         <f t="shared" si="1"/>
-        <v>1792</v>
+        <v>2055</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="13">
         <f t="shared" si="1"/>
-        <v>5324</v>
+        <v>6047</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="15">
         <f>SUM(G5:G9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
-        <v>9</v>
+      <c r="B12" s="16" t="s">
+        <v>8</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="17">
         <f>MIN(C5:C9)</f>
-        <v>6</v>
+        <v>24</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="17">
         <f>MIN(D5:D9)</f>
-        <v>12</v>
+        <v>21</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="17">
         <f>MIN(E5:E9)</f>
-        <v>9</v>
+        <v>26</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="17">
         <f>MIN(F5:F9)</f>
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>10</v>
+      <c r="B13" s="16" t="s">
+        <v>9</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="17">
         <f>MAX(C5:C9)</f>
-        <v>1000</v>
+        <v>1235</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="17">
         <f t="shared" ref="D13:F13" si="2">MAX(D5:D9)</f>
-        <v>1000</v>
+        <v>1198</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="17">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1246</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="17">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>11</v>
+      <c r="B14" s="16" t="s">
+        <v>10</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="17">
         <f>AVERAGE(C5:C9)</f>
-        <v>350</v>
+        <v>400.6</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="17">
         <f t="shared" ref="D14:F14" si="3">AVERAGE(D5:D9)</f>
-        <v>356.4</v>
+        <v>397.8</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="17">
         <f t="shared" si="3"/>
-        <v>358.4</v>
+        <v>411</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="17">
         <f t="shared" si="3"/>
-        <v>1064.8</v>
+        <v>1209.4000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
-        <v>12</v>
+      <c r="B15" s="16" t="s">
+        <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f>COUNT(C5:C9)</f>
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <f t="shared" ref="D15:F15" si="4">COUNT(D5:D9)</f>
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -929,6 +7302,9 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C12:C15 D12:D15 E12:E15 C10:E10" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/monthly_budget.xlsx
+++ b/monthly_budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://weifieldgroup0-my.sharepoint.com/personal/cjones_weifieldgroup_com/Documents/Desktop/Excel_Udemy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="8_{C5B5F0C7-0F4A-434F-A707-AD3DBEF26536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F62D28AE-3DFA-4984-A538-830F576DDE55}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="8_{C5B5F0C7-0F4A-434F-A707-AD3DBEF26536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D789A548-24DF-4E5A-9325-FB165F833B1A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chart_monthly_budget" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Bills</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">2025 Monthly Budget </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                   </t>
   </si>
 </sst>
 </file>
@@ -3374,7 +3377,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C9C8DCC-8790-49D8-9923-3CE78E6131A0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7017,10 +7020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7297,6 +7300,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>

--- a/monthly_budget.xlsx
+++ b/monthly_budget.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://weifieldgroup0-my.sharepoint.com/personal/cjones_weifieldgroup_com/Documents/Desktop/Excel_Udemy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="8_{C5B5F0C7-0F4A-434F-A707-AD3DBEF26536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D789A548-24DF-4E5A-9325-FB165F833B1A}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="8_{C5B5F0C7-0F4A-434F-A707-AD3DBEF26536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA84B857-4A39-438E-A2E7-875EAFCC299C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chart_monthly_budget" sheetId="9" r:id="rId1"/>
-    <sheet name="monthly_budget" sheetId="1" r:id="rId2"/>
+    <sheet name="pie_jan_budget" sheetId="11" r:id="rId2"/>
+    <sheet name="pie_feb_budget" sheetId="10" r:id="rId3"/>
+    <sheet name="pie_march_budget" sheetId="12" r:id="rId4"/>
+    <sheet name="monthly_budget" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1143,11 +1146,504 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jan-25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DFA2-4997-83CA-986A4783A10C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DFA2-4997-83CA-986A4783A10C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DFA2-4997-83CA-986A4783A10C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DFA2-4997-83CA-986A4783A10C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DFA2-4997-83CA-986A4783A10C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>monthly_budget!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Candy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-DFA2-4997-83CA-986A4783A10C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1158,11 +1654,161 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>monthly_budget!$D$4</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Feb-25</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1182,76 +1828,276 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DB8D-4400-A089-48BE74292322}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DB8D-4400-A089-48BE74292322}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DB8D-4400-A089-48BE74292322}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DB8D-4400-A089-48BE74292322}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DB8D-4400-A089-48BE74292322}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1262,17 +2108,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1285,22 +2128,21 @@
             </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="1"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1358,7 +2200,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A7A4-48BC-9494-8D06A534E5D3}"/>
+              <c16:uniqueId val="{0000000A-DB8D-4400-A089-48BE74292322}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1372,8 +2214,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+      </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1396,12 +2237,11 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1425,17 +2265,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1444,20 +2295,15 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1485,13 +2331,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1502,20 +2354,59 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>monthly_budget!$G$4</c:f>
+              <c:f>monthly_budget!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Percent</c:v>
+                  <c:v>Mar-25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1524,77 +2415,329 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C97E-439E-8C28-DA5E52968311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C97E-439E-8C28-DA5E52968311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C97E-439E-8C28-DA5E52968311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C97E-439E-8C28-DA5E52968311}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C97E-439E-8C28-DA5E52968311}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:dPt>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>monthly_budget!$B$5:$B$9</c:f>
@@ -1620,45 +2763,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>monthly_budget!$G$5:$G$9</c:f>
+              <c:f>monthly_budget!$E$5:$E$9</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.60840085993054405</c:v>
+                  <c:v>1246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.243261121217133E-2</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20456424673391765</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10286092277162229</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1741359351744666E-2</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CFBF-4F00-A20A-DB894E5F18EF}"/>
+              <c16:uniqueId val="{0000000A-C97E-439E-8C28-DA5E52968311}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+      </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1682,11 +2824,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1710,17 +2851,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1729,16 +2881,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1859,6 +3006,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
   <cs:axisTitle>
@@ -2336,35 +3523,33 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2372,37 +3557,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2421,14 +3613,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2437,49 +3621,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2491,10 +3661,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2503,16 +3673,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2530,21 +3701,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2563,14 +3731,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2582,14 +3749,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2603,9 +3770,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2619,12 +3785,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2636,9 +3796,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2653,108 +3813,115 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2766,12 +3933,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2787,7 +3961,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2796,9 +3969,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2814,14 +3986,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2830,9 +4001,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2844,46 +4014,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2891,37 +4053,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2940,14 +4109,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2956,49 +4117,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3010,10 +4157,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3022,16 +4169,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3049,21 +4197,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3082,14 +4227,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3101,14 +4245,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3122,9 +4266,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3138,12 +4281,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3155,9 +4292,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3172,108 +4309,115 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3285,12 +4429,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3306,7 +4457,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3315,9 +4465,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3333,27 +4482,521 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3363,12 +5006,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3377,7 +5014,40 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C9C8DCC-8790-49D8-9923-3CE78E6131A0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AFC203FD-9B35-4F80-9097-6B006052682E}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9F6E1621-8748-4371-8803-2A3A02202817}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{48D17BF3-E4F9-4E1C-B947-70017728F5F3}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6444,6 +8114,105 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E2FE19-73C0-9B29-5771-CB3411E13E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E69CC53-D9F9-E661-C28A-6467F385B12B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6374CB1-CEB3-8744-5543-82748088BC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -6649,78 +8418,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
           <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId3" r:lo="rId4" r:qs="rId5" r:cs="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCC2E9C-6020-F729-688B-F4C5EBCE92E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13A7760-CC83-6816-AED2-A0D22F4990D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7022,8 +8719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/monthly_budget.xlsx
+++ b/monthly_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://weifieldgroup0-my.sharepoint.com/personal/cjones_weifieldgroup_com/Documents/Desktop/Excel_Udemy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="8_{C5B5F0C7-0F4A-434F-A707-AD3DBEF26536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA84B857-4A39-438E-A2E7-875EAFCC299C}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="8_{C5B5F0C7-0F4A-434F-A707-AD3DBEF26536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B983BC-89CC-41DD-8D48-6B389335297A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,16 +90,8 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,20 +106,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Candara"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Candara"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -200,43 +209,44 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1036,8 +1046,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.25635842633449396"/>
           <c:y val="0.89519675156039569"/>
-          <c:w val="0.48728314733101213"/>
-          <c:h val="4.6264070343651834E-2"/>
+          <c:w val="0.4874523749047498"/>
+          <c:h val="4.6296042987876256E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2889,6 +2899,1397 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1320" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feb-25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>monthly_budget!$B$5:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Candy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7C7-43F0-934F-D44007A89866}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>monthly_budget!$B$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>2025 Monthly Budget </c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3488720752762336"/>
+          <c:y val="4.6427624007134689E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14275758083431062"/>
+          <c:y val="0.14333884118465937"/>
+          <c:w val="0.82887362483944826"/>
+          <c:h val="0.65086166570648563"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>monthly_budget!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$C$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EA5-4381-A8EC-425194B744D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>monthly_budget!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EA5-4381-A8EC-425194B744D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Credit Cards</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>monthly_budget!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$C$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6EA5-4381-A8EC-425194B744D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>monthly_budget!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$C$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6EA5-4381-A8EC-425194B744D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>monthly_budget!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Candy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>monthly_budget!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>monthly_budget!$C$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6EA5-4381-A8EC-425194B744D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="366732127"/>
+        <c:axId val="366732607"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="366732127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366732607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="366732607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366732127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25635842633449396"/>
+          <c:y val="0.89519675156039569"/>
+          <c:w val="0.48728314733101213"/>
+          <c:h val="4.6264070343651834E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -3046,6 +4447,83 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
   <cs:axisTitle>
@@ -5010,6 +6488,978 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0C9C8DCC-8790-49D8-9923-3CE78E6131A0}">
   <sheetPr/>
@@ -5017,7 +7467,8 @@
     <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5028,7 +7479,8 @@
     <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5039,7 +7491,8 @@
     <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5050,7 +7503,8 @@
     <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -6322,7 +8776,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{46A34875-8FB4-4179-B276-E26FB7D4F7B2}" type="pres">
-      <dgm:prSet presAssocID="{A6FBA831-E58C-46D6-9A18-E2DF980F5408}" presName="arrow" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="1" custLinFactX="-14467" custLinFactY="15659" custLinFactNeighborX="-100000" custLinFactNeighborY="100000"/>
+      <dgm:prSet presAssocID="{A6FBA831-E58C-46D6-9A18-E2DF980F5408}" presName="arrow" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="1" custLinFactNeighborX="2043" custLinFactNeighborY="-1745"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A0B29CD6-D2B8-42F8-B7AB-7360C2C8539E}" type="pres">
@@ -6425,8 +8879,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4388167" cy="3071812"/>
+          <a:off x="481354" y="0"/>
+          <a:ext cx="4429701" cy="3058763"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -6465,8 +8919,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="142660" y="933277"/>
-          <a:ext cx="1569781" cy="1205256"/>
+          <a:off x="144010" y="929313"/>
+          <a:ext cx="1584639" cy="1200136"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6603,8 +9057,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="201496" y="992113"/>
-        <a:ext cx="1452109" cy="1087584"/>
+        <a:off x="202596" y="987899"/>
+        <a:ext cx="1467467" cy="1082964"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3BC48A74-372B-4DC9-9CDF-46CBF1AABACE}">
@@ -6614,8 +9068,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1796384" y="933277"/>
-          <a:ext cx="1569781" cy="1205256"/>
+          <a:off x="1813387" y="929313"/>
+          <a:ext cx="1584639" cy="1200136"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6734,8 +9188,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1855220" y="992113"/>
-        <a:ext cx="1452109" cy="1087584"/>
+        <a:off x="1871973" y="987899"/>
+        <a:ext cx="1467467" cy="1082964"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{63EFDB58-0384-4076-8B1E-50722CC9DD29}">
@@ -6745,8 +9199,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3450107" y="933277"/>
-          <a:ext cx="1569781" cy="1205256"/>
+          <a:off x="3482763" y="929313"/>
+          <a:ext cx="1584639" cy="1200136"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6883,8 +9337,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3508943" y="992113"/>
-        <a:ext cx="1452109" cy="1087584"/>
+        <a:off x="3541349" y="987899"/>
+        <a:ext cx="1467467" cy="1082964"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -8083,7 +10537,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:ext cx="8661400" cy="6287168"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8216,15 +10670,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>523280</xdr:rowOff>
+      <xdr:rowOff>513755</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8256,7 +10710,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="828676" y="247651"/>
+          <a:off x="800101" y="247651"/>
           <a:ext cx="828674" cy="466129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8321,16 +10775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47623</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>914398</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1152523</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8344,9 +10798,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5657848" y="1095375"/>
-          <a:ext cx="800101" cy="360045"/>
+        <a:xfrm rot="5400000">
+          <a:off x="5638799" y="2552700"/>
+          <a:ext cx="447674" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -8389,16 +10843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>117144</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8423,6 +10877,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>627784</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>67542</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117764</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F3C0D4-3286-97FF-AC20-15D0E9499AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="8205107" y="5306787"/>
+    <xdr:ext cx="5497285" cy="3633107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547BA8B8-88EF-4E3F-B6B5-D3FF2B6BCB79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8719,286 +11237,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="2" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="10">
         <v>45658</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="10">
         <v>45689</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="10">
         <v>45717</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="12">
         <v>1235</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <v>1198</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <v>1246</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <f>SUM(C5:E5)</f>
         <v>3679</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="14">
         <f>(F5/F10)</f>
         <v>0.60840085993054405</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="15">
         <v>146</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="15">
         <v>146</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="15">
         <v>146</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <f t="shared" ref="F6:F9" si="0">SUM(C6:E6)</f>
         <v>438</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <f>(F6/F10)</f>
         <v>7.243261121217133E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="15">
         <v>413</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="15">
         <v>412</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="15">
         <v>412</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>1237</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="14">
         <f>(F7/F10)</f>
         <v>0.20456424673391765</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="15">
         <v>185</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="16">
         <v>212</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="16">
         <v>225</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>622</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="14">
         <f>(F8/F10)</f>
         <v>0.10286092277162229</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="15">
         <v>24</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="15">
         <v>21</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="15">
         <v>26</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="14">
         <f>(F9/F10)</f>
         <v>1.1741359351744666E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="15">
         <f>SUM(C5:C9)</f>
         <v>2003</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="15">
         <f t="shared" ref="D10:F10" si="1">SUM(D5:D9)</f>
         <v>1989</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="15">
         <f t="shared" si="1"/>
         <v>2055</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="15">
         <f t="shared" si="1"/>
         <v>6047</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="17">
         <f>SUM(G5:G9)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="19">
         <f>MIN(C5:C9)</f>
         <v>24</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="19">
         <f>MIN(D5:D9)</f>
         <v>21</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="19">
         <f>MIN(E5:E9)</f>
         <v>26</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="19">
         <f>MIN(F5:F9)</f>
         <v>71</v>
       </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="19">
         <f>MAX(C5:C9)</f>
         <v>1235</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="19">
         <f t="shared" ref="D13:F13" si="2">MAX(D5:D9)</f>
         <v>1198</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="19">
         <f t="shared" si="2"/>
         <v>1246</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="19">
         <f t="shared" si="2"/>
         <v>3679</v>
       </c>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="19">
         <f>AVERAGE(C5:C9)</f>
         <v>400.6</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="19">
         <f t="shared" ref="D14:F14" si="3">AVERAGE(D5:D9)</f>
         <v>397.8</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="19">
         <f t="shared" si="3"/>
         <v>411</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="19">
         <f t="shared" si="3"/>
         <v>1209.4000000000001</v>
       </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <f>COUNT(C5:C9)</f>
         <v>5</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <f t="shared" ref="D15:F15" si="4">COUNT(D5:D9)</f>
         <v>5</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="G15" s="6"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9006,10 +11541,16 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="125" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C2025 Monthly Budget&amp;RChris Jones</oddHeader>
+    <oddFooter>&amp;C&amp;8&amp;Z&amp;F&amp;R&amp;P</oddFooter>
+  </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="C12:C15 D12:D15 E12:E15 C10:E10" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/monthly_budget.xlsx
+++ b/monthly_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://weifieldgroup0-my.sharepoint.com/personal/cjones_weifieldgroup_com/Documents/Desktop/Excel_Udemy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="457" documentId="8_{C5B5F0C7-0F4A-434F-A707-AD3DBEF26536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23B983BC-89CC-41DD-8D48-6B389335297A}"/>
+  <xr:revisionPtr revIDLastSave="463" documentId="8_{C5B5F0C7-0F4A-434F-A707-AD3DBEF26536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5D7395E-4198-4D41-B3C4-8C9813C0D90D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8858,7 +8858,7 @@
   <dgm:whole/>
   <dgm:extLst>
     <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
-      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId7" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId8" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
@@ -8879,8 +8879,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="481354" y="0"/>
-          <a:ext cx="4429701" cy="3058763"/>
+          <a:off x="517425" y="0"/>
+          <a:ext cx="4761648" cy="3058763"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -8919,8 +8919,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="144010" y="929313"/>
-          <a:ext cx="1584639" cy="1200136"/>
+          <a:off x="148511" y="929313"/>
+          <a:ext cx="1703387" cy="1200136"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9057,8 +9057,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="202596" y="987899"/>
-        <a:ext cx="1467467" cy="1082964"/>
+        <a:off x="207097" y="987899"/>
+        <a:ext cx="1586215" cy="1082964"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3BC48A74-372B-4DC9-9CDF-46CBF1AABACE}">
@@ -9068,8 +9068,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1813387" y="929313"/>
-          <a:ext cx="1584639" cy="1200136"/>
+          <a:off x="1949275" y="929313"/>
+          <a:ext cx="1703387" cy="1200136"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9188,8 +9188,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1871973" y="987899"/>
-        <a:ext cx="1467467" cy="1082964"/>
+        <a:off x="2007861" y="987899"/>
+        <a:ext cx="1586215" cy="1082964"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{63EFDB58-0384-4076-8B1E-50722CC9DD29}">
@@ -9199,8 +9199,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3482763" y="929313"/>
-          <a:ext cx="1584639" cy="1200136"/>
+          <a:off x="3750040" y="929313"/>
+          <a:ext cx="1703387" cy="1200136"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9337,8 +9337,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3541349" y="987899"/>
-        <a:ext cx="1467467" cy="1082964"/>
+        <a:off x="3808626" y="987899"/>
+        <a:ext cx="1586215" cy="1082964"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -10747,7 +10747,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -10871,7 +10871,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId3" r:lo="rId4" r:qs="rId5" r:cs="rId6"/>
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId4" r:lo="rId5" r:qs="rId6" r:cs="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10907,7 +10907,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10935,7 +10935,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11237,8 +11237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
